--- a/src/config/midas_config_values.xlsx
+++ b/src/config/midas_config_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Documents/code/midas-alt/src/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C627BB-4F2D-8B44-B05E-AA197DF78CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8616FB9E-B90A-2B4A-975D-636AEF2C7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34580" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C4C84A31-B2D7-9544-A674-D1C9532EF091}"/>
+    <workbookView xWindow="8320" yWindow="3860" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{C4C84A31-B2D7-9544-A674-D1C9532EF091}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="8" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2BE7E4-AE03-BF44-AB43-76DD35D2623F}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF1EA1C-7BBA-8248-A653-8031C2EE8B39}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
